--- a/Location Details/Massachusetts Ave, Indianapolis, IN 46204_sport.xlsx
+++ b/Location Details/Massachusetts Ave, Indianapolis, IN 46204_sport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         <v>4.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -739,20 +739,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Indianapolis Sports Park Inc</t>
+          <t>Indy Indoor Sport</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -761,20 +761,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Indy Indoor Sport</t>
+          <t>Indy Sports Performance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -783,20 +783,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Indy Sports Performance</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>JD Sports</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -805,22 +807,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JD Sports</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
+          <t>KS&amp;E Sports</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -829,20 +829,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KS&amp;E Sports</t>
+          <t>Looking Good Sports Llc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Looking Good Sports Llc</t>
+          <t>N &amp; D Sports</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -873,20 +873,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N &amp; D Sports</t>
+          <t>National Institute for Fitness and Sport (NIFS)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -895,42 +895,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>National Institute for Fitness and Sport (NIFS)</t>
+          <t>Oakley Store</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLOSED_TEMPORARILY</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Origyn Sport</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -939,20 +939,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Oakley Store</t>
+          <t>Play It Again Sports</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F23" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -961,20 +961,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Origyn Sport</t>
+          <t>Ruben Sports</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -983,20 +983,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Play It Again Sports</t>
+          <t>Sport Clips Haircuts of Avon</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1005,20 +1005,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ruben Sports</t>
+          <t>Sport Clips Haircuts of Camby - Heartland Crossing</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1027,20 +1027,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Avon</t>
+          <t>Sport Clips Haircuts of Carmel - Carmel Point</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="F27" t="n">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1057,12 +1057,12 @@
         <v>4.4</v>
       </c>
       <c r="F28" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1159,20 +1159,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Greenwood South</t>
+          <t>Sport Clips Haircuts of Greenwood Springs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F33" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sport Clips Haircuts of Greenwood Springs</t>
+          <t>Sport Clips Haircuts of Indianapolis - 96th Street</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1189,12 +1189,12 @@
         <v>4.3</v>
       </c>
       <c r="F34" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1555,20 +1555,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The SportZone</t>
+          <t>Tri County Sports Shop</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="F51" t="n">
-        <v>277</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1577,36 +1577,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tri County Sports Shop</t>
+          <t>Webster's Sporting Goods</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F52" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Webster's Sporting Goods</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F53" t="n">
         <v>28</v>
       </c>
     </row>
